--- a/results/mp/tinybert/corona/confidence/84/topk-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/topk-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,6 +43,9 @@
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
@@ -52,79 +55,94 @@
     <t>sc</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>positive</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>safety</t>
+    <t>better</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>better</t>
+    <t>heroes</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
     <t>please</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -482,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -493,7 +511,7 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -551,13 +569,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.92</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -569,19 +587,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -593,7 +611,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -601,13 +619,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7077922077922078</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C4">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -619,19 +637,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -643,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -651,13 +669,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3562231759656652</v>
+        <v>0.5958904109589042</v>
       </c>
       <c r="C5">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="D5">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -669,19 +687,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K5">
-        <v>0.9375</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -693,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -701,13 +719,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2093023255813954</v>
+        <v>0.187984496124031</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -719,19 +737,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>68</v>
+        <v>419</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K6">
-        <v>0.9375</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L6">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M6">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -743,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -751,13 +769,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1111111111111111</v>
+        <v>0.1693121693121693</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -769,19 +787,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K7">
-        <v>0.8627450980392157</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L7">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="M7">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -793,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -801,13 +819,13 @@
         <v>19</v>
       </c>
       <c r="K8">
-        <v>0.8571428571428571</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L8">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="M8">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -819,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -827,13 +845,13 @@
         <v>20</v>
       </c>
       <c r="K9">
-        <v>0.8518518518518519</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L9">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="M9">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -845,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -853,13 +871,13 @@
         <v>21</v>
       </c>
       <c r="K10">
-        <v>0.8431372549019608</v>
+        <v>0.7890625</v>
       </c>
       <c r="L10">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="M10">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -871,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -879,13 +897,13 @@
         <v>22</v>
       </c>
       <c r="K11">
-        <v>0.825</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L11">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M11">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -897,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -905,13 +923,13 @@
         <v>23</v>
       </c>
       <c r="K12">
-        <v>0.8148148148148148</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L12">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M12">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -923,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -931,13 +949,13 @@
         <v>24</v>
       </c>
       <c r="K13">
-        <v>0.76</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L13">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M13">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -949,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -957,13 +975,13 @@
         <v>25</v>
       </c>
       <c r="K14">
-        <v>0.726027397260274</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L14">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="M14">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -975,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -983,13 +1001,13 @@
         <v>26</v>
       </c>
       <c r="K15">
-        <v>0.7068965517241379</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="L15">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="M15">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1001,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1009,13 +1027,13 @@
         <v>27</v>
       </c>
       <c r="K16">
-        <v>0.6923076923076923</v>
+        <v>0.7112676056338029</v>
       </c>
       <c r="L16">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="M16">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1027,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1035,13 +1053,13 @@
         <v>28</v>
       </c>
       <c r="K17">
-        <v>0.6923076923076923</v>
+        <v>0.675</v>
       </c>
       <c r="L17">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="M17">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1053,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1061,13 +1079,13 @@
         <v>29</v>
       </c>
       <c r="K18">
-        <v>0.6896551724137931</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="L18">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="M18">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1079,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1087,13 +1105,13 @@
         <v>30</v>
       </c>
       <c r="K19">
-        <v>0.64</v>
+        <v>0.625</v>
       </c>
       <c r="L19">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1105,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1113,13 +1131,13 @@
         <v>31</v>
       </c>
       <c r="K20">
-        <v>0.6363636363636364</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L20">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="M20">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1131,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1139,13 +1157,13 @@
         <v>32</v>
       </c>
       <c r="K21">
-        <v>0.539906103286385</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="L21">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="M21">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1157,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>98</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1165,13 +1183,13 @@
         <v>33</v>
       </c>
       <c r="K22">
-        <v>0.5333333333333333</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L22">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M22">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1183,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1191,13 +1209,13 @@
         <v>34</v>
       </c>
       <c r="K23">
-        <v>0.5069444444444444</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="L23">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="M23">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1209,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>71</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1217,13 +1235,13 @@
         <v>35</v>
       </c>
       <c r="K24">
-        <v>0.4806201550387597</v>
+        <v>0.4986945169712794</v>
       </c>
       <c r="L24">
-        <v>62</v>
+        <v>191</v>
       </c>
       <c r="M24">
-        <v>62</v>
+        <v>191</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1235,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>67</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1243,13 +1261,13 @@
         <v>36</v>
       </c>
       <c r="K25">
-        <v>0.3478260869565217</v>
+        <v>0.4735294117647059</v>
       </c>
       <c r="L25">
-        <v>32</v>
+        <v>161</v>
       </c>
       <c r="M25">
-        <v>32</v>
+        <v>161</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1261,7 +1279,163 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>60</v>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K26">
+        <v>0.449438202247191</v>
+      </c>
+      <c r="L26">
+        <v>40</v>
+      </c>
+      <c r="M26">
+        <v>40</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K27">
+        <v>0.3966101694915254</v>
+      </c>
+      <c r="L27">
+        <v>117</v>
+      </c>
+      <c r="M27">
+        <v>117</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28">
+        <v>0.3347280334728033</v>
+      </c>
+      <c r="L28">
+        <v>80</v>
+      </c>
+      <c r="M28">
+        <v>80</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K29">
+        <v>0.3205128205128205</v>
+      </c>
+      <c r="L29">
+        <v>25</v>
+      </c>
+      <c r="M29">
+        <v>25</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K30">
+        <v>0.02333333333333333</v>
+      </c>
+      <c r="L30">
+        <v>28</v>
+      </c>
+      <c r="M30">
+        <v>28</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K31">
+        <v>0.005204163330664532</v>
+      </c>
+      <c r="L31">
+        <v>26</v>
+      </c>
+      <c r="M31">
+        <v>26</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>4970</v>
       </c>
     </row>
   </sheetData>
